--- a/python/two/SD t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/SD t1=6 t2=5 δ=0.4.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.86e+00</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0755</t>
+          <t>0.0955</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0854</t>
+          <t>0.0886</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.0833</t>
         </is>
       </c>
     </row>
@@ -525,12 +525,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.04e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>211000.0</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,17 +540,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.33e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>80.6</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.06e+00</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>212000.0</t>
+          <t>71.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,17 +582,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.35e+00</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>81.6</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.99e-01</t>
+          <t>6.16e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28800.0</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.86e-01</t>
+          <t>5.97e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.22e-01</t>
+          <t>6.31e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.269</t>
+          <t>1.96</t>
         </is>
       </c>
     </row>
@@ -651,24 +651,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.81e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00132</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>8.79e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.00122</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.00118</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>8.80e-01</t>
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00141</t>
+          <t>0.00116</t>
         </is>
       </c>
     </row>

--- a/python/two/SD t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/SD t1=6 t2=5 δ=0.4.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.97e+00</t>
+          <t>6.03e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.05e+00</t>
+          <t>5.98e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.0929</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.05e+00</t>
+          <t>6.10e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0833</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.11e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>0.336</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>4.15e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.53e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80.6</t>
+          <t>0.425</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>5.12e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.5</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>4.17e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>5.54e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>81.6</t>
+          <t>0.429</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.16e-01</t>
+          <t>2.14e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.97e-01</t>
+          <t>5.03e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.469</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.31e-01</t>
+          <t>2.30e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.166</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.78e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00124</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.78e-01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>8.81e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00132</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.00122</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8.80e-01</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00116</t>
+          <t>0.00133</t>
         </is>
       </c>
     </row>

--- a/python/two/SD t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/SD t1=6 t2=5 δ=0.4.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.03e+00</t>
+          <t>5.93e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.0914</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.98e+00</t>
+          <t>5.90e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0929</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.10e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.104</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.11e+00</t>
+          <t>4.61e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.336</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.15e+00</t>
+          <t>5.13e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.53e+00</t>
+          <t>4.35e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.425</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.12e+00</t>
+          <t>4.64e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.17e+00</t>
+          <t>5.18e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.54e+00</t>
+          <t>4.39e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>1.23</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.14e-01</t>
+          <t>4.72e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>0.451</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.03e-01</t>
+          <t>4.09e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.469</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.30e-01</t>
+          <t>3.55e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.166</t>
+          <t>0.154</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00127</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>8.78e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00124</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.78e-01</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.00135</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.81e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00133</t>
+          <t>0.00135</t>
         </is>
       </c>
     </row>

--- a/python/two/SD t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/SD t1=6 t2=5 δ=0.4.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.93e+00</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.90e+00</t>
+          <t>6.14e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0993</t>
+          <t>0.0926</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.01e+00</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.101</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.61e+00</t>
+          <t>5.56e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.13e+00</t>
+          <t>5.22e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>0.442</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.35e+00</t>
+          <t>2.83e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>8.34</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.64e+00</t>
+          <t>5.57e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.255</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.18e+00</t>
+          <t>5.25e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>0.447</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.39e+00</t>
+          <t>2.85e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.72e-01</t>
+          <t>1.62e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.451</t>
+          <t>0.135</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.09e-01</t>
+          <t>2.59e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.107</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.55e-01</t>
+          <t>5.18e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.154</t>
+          <t>0.428</t>
         </is>
       </c>
     </row>
@@ -651,32 +651,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00127</t>
+          <t>0.00135</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.78e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00135</t>
+          <t>0.00111</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.79e-01</t>
+          <t>8.77e-01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00135</t>
+          <t>0.00141</t>
         </is>
       </c>
     </row>

--- a/python/two/SD t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/SD t1=6 t2=5 δ=0.4.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.97e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.0912</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.14e+00</t>
+          <t>5.88e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0926</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.95e+00</t>
+          <t>6.07e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.0851</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.56e+00</t>
+          <t>4.32e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.22e+00</t>
+          <t>5.61e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.442</t>
+          <t>0.782</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.83e+00</t>
+          <t>2.94e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>8.18</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.57e+00</t>
+          <t>4.35e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.255</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.25e+00</t>
+          <t>5.64e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.447</t>
+          <t>0.788</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.85e+00</t>
+          <t>2.96e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.26</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.62e-01</t>
+          <t>4.25e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.135</t>
+          <t>0.244</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.59e-01</t>
+          <t>3.12e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.623</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.18e-01</t>
+          <t>5.32e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.428</t>
+          <t>0.408</t>
         </is>
       </c>
     </row>
@@ -656,27 +656,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00135</t>
+          <t>0.00122</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.81e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00111</t>
+          <t>0.00132</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.77e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00141</t>
+          <t>0.00116</t>
         </is>
       </c>
     </row>

--- a/python/two/SD t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/SD t1=6 t2=5 δ=0.4.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>2.75e-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.88e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>2.75e-12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.07e+00</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0851</t>
+          <t>2.75e-12</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.32e+00</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>4.87e-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.61e+00</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.782</t>
+          <t>4.87e-11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.94e+00</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>4.87e-11</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.35e+00</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>4.87e-11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.64e+00</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.788</t>
+          <t>4.87e-11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.96e+00</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>4.87e-11</t>
         </is>
       </c>
     </row>
@@ -609,32 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.25e-01</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.244</t>
+          <t>9.44e-12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.12e-01</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.623</t>
+          <t>9.44e-12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.32e-01</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.408</t>
+          <t>9.44e-12</t>
         </is>
       </c>
     </row>
@@ -651,22 +651,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.79e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00122</t>
+          <t>3.66e-14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.79e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00132</t>
+          <t>3.66e-14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00116</t>
+          <t>3.66e-14</t>
         </is>
       </c>
     </row>
